--- a/Documentation/Fichiers personnels/CR_Matthew_Flenet.xlsx
+++ b/Documentation/Fichiers personnels/CR_Matthew_Flenet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3A91C2-1D0E-4C26-8C2C-65AE527C9D3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA9FB85-54ED-4887-BBD4-4030150B32CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Compte Rendu - Matthew Flenet</t>
   </si>
@@ -58,13 +58,31 @@
     <t>30 minutes</t>
   </si>
   <si>
-    <t>20minutes</t>
-  </si>
-  <si>
     <t>test des différentes fonctions de GitHub (PULL/PUSH/MERGE…)</t>
   </si>
   <si>
     <t>Clonage et paramétrage du GitHub (fait par Thia), pull de ce document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confection de l'écran de jeu </t>
+  </si>
+  <si>
+    <t>codage desmouvemetns du vaisseau avec son importation</t>
+  </si>
+  <si>
+    <t>début des bordures</t>
+  </si>
+  <si>
+    <t>20 minutes</t>
+  </si>
+  <si>
+    <t>finition des bordures et test</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>1 heure 20 Minutes</t>
   </si>
 </sst>
 </file>
@@ -222,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -273,6 +291,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,7 +589,7 @@
   <dimension ref="B2:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +597,7 @@
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="80.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
@@ -621,7 +642,7 @@
         <v>43756</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>9</v>
@@ -638,10 +659,10 @@
         <v>43756</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="3"/>
@@ -650,29 +671,53 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="2"/>
+      <c r="B7" s="20">
+        <v>43777</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="2"/>
+      <c r="B8" s="20">
+        <v>43777</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="2"/>
+      <c r="B9" s="20">
+        <v>43777</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="14">
+        <v>43784</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="16"/>
       <c r="I10" s="5"/>
       <c r="N10" s="5"/>
     </row>
@@ -689,7 +734,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="2"/>

--- a/Documentation/Fichiers personnels/CR_Matthew_Flenet.xlsx
+++ b/Documentation/Fichiers personnels/CR_Matthew_Flenet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA9FB85-54ED-4887-BBD4-4030150B32CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87A9A95-A481-4935-8688-8D94EBD61AAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Compte Rendu - Matthew Flenet</t>
   </si>
@@ -67,9 +67,6 @@
     <t xml:space="preserve">confection de l'écran de jeu </t>
   </si>
   <si>
-    <t>codage desmouvemetns du vaisseau avec son importation</t>
-  </si>
-  <si>
     <t>début des bordures</t>
   </si>
   <si>
@@ -79,10 +76,28 @@
     <t>finition des bordures et test</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>1 heure 20 Minutes</t>
+  </si>
+  <si>
+    <t>codage des mouvements du vaisseau avec son importation</t>
+  </si>
+  <si>
+    <t>codage des mouvements du vaisseau</t>
+  </si>
+  <si>
+    <t>codage des parametres aléatoires ou non des astéroides</t>
+  </si>
+  <si>
+    <t>1 heure</t>
+  </si>
+  <si>
+    <t>2 heure</t>
+  </si>
+  <si>
+    <t>1 heure 30 minutes</t>
+  </si>
+  <si>
+    <t>codage des mouvements des astéroides, rectiligne,vertical</t>
   </si>
 </sst>
 </file>
@@ -284,6 +299,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -291,9 +309,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -589,7 +604,7 @@
   <dimension ref="B2:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,16 +613,17 @@
     <col min="3" max="3" width="80.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -662,7 +678,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="3"/>
@@ -671,39 +687,39 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>43777</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>43777</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="3"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>43777</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -712,41 +728,67 @@
         <v>43784</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E10" s="16"/>
       <c r="I10" s="5"/>
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="14">
+        <v>43784</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="14">
+        <v>43784</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="17">
+        <v>43798</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="17">
+        <v>43798</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
+      <c r="B15" s="17">
+        <v>43798</v>
+      </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="2"/>

--- a/Documentation/Fichiers personnels/CR_Matthew_Flenet.xlsx
+++ b/Documentation/Fichiers personnels/CR_Matthew_Flenet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87A9A95-A481-4935-8688-8D94EBD61AAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A218E8-67A3-4B1E-ABE8-640CD3A7C8F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Compte Rendu - Matthew Flenet</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>codage des mouvements des astéroides, rectiligne,vertical</t>
+  </si>
+  <si>
+    <t>Terminer les deplacements des 6 astéroides, 3 verticaux, 3 horizontaux</t>
+  </si>
+  <si>
+    <t>coder tout les parametres d'asteroide variable, position, taille …</t>
   </si>
 </sst>
 </file>
@@ -604,7 +610,7 @@
   <dimension ref="B2:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,6 +766,9 @@
         <v>20</v>
       </c>
       <c r="E12" s="16"/>
+      <c r="H12" s="10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="17">
@@ -794,19 +803,27 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="14">
+        <v>43805</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="D16" s="10"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
+      <c r="B17" s="14">
+        <v>43805</v>
+      </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
+      <c r="B18" s="14">
+        <v>43805</v>
+      </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="2"/>

--- a/Documentation/Fichiers personnels/CR_Matthew_Flenet.xlsx
+++ b/Documentation/Fichiers personnels/CR_Matthew_Flenet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A218E8-67A3-4B1E-ABE8-640CD3A7C8F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72AFEF3-B3B3-462B-A01B-D27FFCEF71F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Compte Rendu - Matthew Flenet</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Création de ce document</t>
   </si>
   <si>
-    <t>10 minutes</t>
-  </si>
-  <si>
     <t>30 minutes</t>
   </si>
   <si>
@@ -73,18 +70,9 @@
     <t>20 minutes</t>
   </si>
   <si>
-    <t>finition des bordures et test</t>
-  </si>
-  <si>
-    <t>1 heure 20 Minutes</t>
-  </si>
-  <si>
     <t>codage des mouvements du vaisseau avec son importation</t>
   </si>
   <si>
-    <t>codage des mouvements du vaisseau</t>
-  </si>
-  <si>
     <t>codage des parametres aléatoires ou non des astéroides</t>
   </si>
   <si>
@@ -97,13 +85,79 @@
     <t>1 heure 30 minutes</t>
   </si>
   <si>
-    <t>codage des mouvements des astéroides, rectiligne,vertical</t>
-  </si>
-  <si>
-    <t>Terminer les deplacements des 6 astéroides, 3 verticaux, 3 horizontaux</t>
-  </si>
-  <si>
-    <t>coder tout les parametres d'asteroide variable, position, taille …</t>
+    <t>Ajout du dossier image du vaisseau pour l'interface graphique</t>
+  </si>
+  <si>
+    <t>5 minutes</t>
+  </si>
+  <si>
+    <t>Création de la page Game ou tout le jeu sera codé</t>
+  </si>
+  <si>
+    <t>Ajout des images (BackGround Hero, Asteroide…)</t>
+  </si>
+  <si>
+    <t>Mise en place déplacement du vaisseau a l'aide des commandes ui de l'interface grahique qt</t>
+  </si>
+  <si>
+    <t>Création Bordures et déplacements vaisseau</t>
+  </si>
+  <si>
+    <t>re-codage des mouvements du vaisseau</t>
+  </si>
+  <si>
+    <t>amélioration des mouvements du vaisseau</t>
+  </si>
+  <si>
+    <t>finition des bordures avec test</t>
+  </si>
+  <si>
+    <t>codage des mouvements d'un astéroides, rectiligne, vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coder un second astéroide avec les memes variables (sauf le départ pas au meme moment) </t>
+  </si>
+  <si>
+    <t>update du gitignore et rectification de nombreux problemes de merge</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>Grandes modifications générales (voir Github)</t>
+  </si>
+  <si>
+    <t>3H</t>
+  </si>
+  <si>
+    <t>Grandes modifications générales 2 (voir Github)</t>
+  </si>
+  <si>
+    <t>Grandes modifications générales 3 (voir Github)</t>
+  </si>
+  <si>
+    <t>Grandes modifications générales semi finale (voir Github)</t>
+  </si>
+  <si>
+    <t>1H</t>
+  </si>
+  <si>
+    <t>Finition du Programme avec recodage de l'envoi message serveur</t>
+  </si>
+  <si>
+    <t>Programme Fini, Test realisation du cahier de recette</t>
+  </si>
+  <si>
+    <t>20 Minutes</t>
+  </si>
+  <si>
+    <t>40 Minutes</t>
+  </si>
+  <si>
+    <t>15 minutes</t>
   </si>
 </sst>
 </file>
@@ -261,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -297,9 +351,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -609,27 +660,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="80.5703125" customWidth="1"/>
+    <col min="3" max="3" width="90" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -653,7 +705,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="7"/>
@@ -664,13 +716,13 @@
         <v>43756</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="G5" s="16"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
@@ -681,10 +733,10 @@
         <v>43756</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="3"/>
@@ -693,249 +745,269 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>43777</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>43777</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>43777</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
-        <v>43784</v>
+      <c r="B10" s="16">
+        <v>43777</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="I10" s="5"/>
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
+      <c r="B11" s="16">
+        <v>43777</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>43777</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="16">
+        <v>43777</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <v>43777</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="14">
         <v>43784</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
-        <v>43784</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="H12" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="17">
-        <v>43798</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="17">
-        <v>43798</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="17">
-        <v>43798</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
-        <v>43805</v>
+        <v>43784</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
+        <v>43784</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="16">
+        <v>43798</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="16">
+        <v>43798</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="14">
         <v>43805</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="14">
+      <c r="C20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="14">
         <v>43805</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="2"/>
+      <c r="B22" s="16">
+        <v>43811</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="2"/>
+      <c r="B23" s="16">
+        <v>43811</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="2"/>
+      <c r="B24" s="16">
+        <v>43811</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="2"/>
+      <c r="B25" s="14">
+        <v>43811</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="2"/>
+      <c r="B26" s="16">
+        <v>43812</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="15"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="15"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="14"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="14"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="2"/>
-    </row>
+      <c r="B27" s="16">
+        <v>43812</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>

--- a/Documentation/Fichiers personnels/CR_Matthew_Flenet.xlsx
+++ b/Documentation/Fichiers personnels/CR_Matthew_Flenet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72AFEF3-B3B3-462B-A01B-D27FFCEF71F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A218E8-67A3-4B1E-ABE8-640CD3A7C8F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Compte Rendu - Matthew Flenet</t>
   </si>
@@ -52,6 +52,9 @@
     <t>Création de ce document</t>
   </si>
   <si>
+    <t>10 minutes</t>
+  </si>
+  <si>
     <t>30 minutes</t>
   </si>
   <si>
@@ -70,9 +73,18 @@
     <t>20 minutes</t>
   </si>
   <si>
+    <t>finition des bordures et test</t>
+  </si>
+  <si>
+    <t>1 heure 20 Minutes</t>
+  </si>
+  <si>
     <t>codage des mouvements du vaisseau avec son importation</t>
   </si>
   <si>
+    <t>codage des mouvements du vaisseau</t>
+  </si>
+  <si>
     <t>codage des parametres aléatoires ou non des astéroides</t>
   </si>
   <si>
@@ -85,79 +97,13 @@
     <t>1 heure 30 minutes</t>
   </si>
   <si>
-    <t>Ajout du dossier image du vaisseau pour l'interface graphique</t>
-  </si>
-  <si>
-    <t>5 minutes</t>
-  </si>
-  <si>
-    <t>Création de la page Game ou tout le jeu sera codé</t>
-  </si>
-  <si>
-    <t>Ajout des images (BackGround Hero, Asteroide…)</t>
-  </si>
-  <si>
-    <t>Mise en place déplacement du vaisseau a l'aide des commandes ui de l'interface grahique qt</t>
-  </si>
-  <si>
-    <t>Création Bordures et déplacements vaisseau</t>
-  </si>
-  <si>
-    <t>re-codage des mouvements du vaisseau</t>
-  </si>
-  <si>
-    <t>amélioration des mouvements du vaisseau</t>
-  </si>
-  <si>
-    <t>finition des bordures avec test</t>
-  </si>
-  <si>
-    <t>codage des mouvements d'un astéroides, rectiligne, vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coder un second astéroide avec les memes variables (sauf le départ pas au meme moment) </t>
-  </si>
-  <si>
-    <t>update du gitignore et rectification de nombreux problemes de merge</t>
-  </si>
-  <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>Grandes modifications générales (voir Github)</t>
-  </si>
-  <si>
-    <t>3H</t>
-  </si>
-  <si>
-    <t>Grandes modifications générales 2 (voir Github)</t>
-  </si>
-  <si>
-    <t>Grandes modifications générales 3 (voir Github)</t>
-  </si>
-  <si>
-    <t>Grandes modifications générales semi finale (voir Github)</t>
-  </si>
-  <si>
-    <t>1H</t>
-  </si>
-  <si>
-    <t>Finition du Programme avec recodage de l'envoi message serveur</t>
-  </si>
-  <si>
-    <t>Programme Fini, Test realisation du cahier de recette</t>
-  </si>
-  <si>
-    <t>20 Minutes</t>
-  </si>
-  <si>
-    <t>40 Minutes</t>
-  </si>
-  <si>
-    <t>15 minutes</t>
+    <t>codage des mouvements des astéroides, rectiligne,vertical</t>
+  </si>
+  <si>
+    <t>Terminer les deplacements des 6 astéroides, 3 verticaux, 3 horizontaux</t>
+  </si>
+  <si>
+    <t>coder tout les parametres d'asteroide variable, position, taille …</t>
   </si>
 </sst>
 </file>
@@ -315,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -351,6 +297,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -660,28 +609,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -705,7 +653,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="7"/>
@@ -716,13 +664,13 @@
         <v>43756</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="G5" s="15"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
@@ -733,10 +681,10 @@
         <v>43756</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="3"/>
@@ -745,269 +693,249 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16">
+      <c r="B7" s="17">
         <v>43777</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
+      <c r="B8" s="17">
         <v>43777</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E8" s="3"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16">
+      <c r="B9" s="17">
         <v>43777</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
-        <v>43777</v>
+      <c r="B10" s="14">
+        <v>43784</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="E10" s="16"/>
       <c r="I10" s="5"/>
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16">
-        <v>43777</v>
+      <c r="B11" s="14">
+        <v>43784</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14">
+        <v>43784</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
-        <v>43777</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="E12" s="16"/>
+      <c r="H12" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="17">
+        <v>43798</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="17">
+        <v>43798</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16">
-        <v>43777</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
-        <v>43777</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="14">
-        <v>43784</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3"/>
+      <c r="B15" s="17">
+        <v>43798</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
-        <v>43784</v>
+        <v>43805</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="3"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
-        <v>43784</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="15"/>
+        <v>43805</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
-        <v>43798</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="3"/>
+      <c r="B18" s="14">
+        <v>43805</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16">
-        <v>43798</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="3"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="14">
-        <v>43805</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="3"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="14">
-        <v>43805</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="3"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
-        <v>43811</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="3"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16">
-        <v>43811</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="3"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16">
-        <v>43811</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="3"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="14">
-        <v>43811</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="3"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="16">
-        <v>43812</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="3"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="16">
-        <v>43812</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="15"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="15"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="15"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="14"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="2"/>
+    </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
